--- a/人均GDP+人口集聚程度+二产占比+人均道路面积+金融发展水平/PSM_平衡性检验.xlsx
+++ b/人均GDP+人口集聚程度+二产占比+人均道路面积+金融发展水平/PSM_平衡性检验.xlsx
@@ -505,19 +505,19 @@
         <v>6.367014697098049e-40</v>
       </c>
       <c r="F2" t="n">
-        <v>10.41091006120904</v>
+        <v>10.37410618543966</v>
       </c>
       <c r="G2" t="n">
-        <v>10.4056293317171</v>
+        <v>10.38150179323413</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7934666271433747</v>
+        <v>-1.099766490807006</v>
       </c>
       <c r="I2" t="n">
-        <v>0.82963498644286</v>
+        <v>0.7754333190849723</v>
       </c>
       <c r="J2" t="n">
-        <v>98.23192765710557</v>
+        <v>102.4505967226855</v>
       </c>
     </row>
     <row r="3">
@@ -539,19 +539,19 @@
         <v>4.525534213682617e-50</v>
       </c>
       <c r="F3" t="n">
-        <v>6.014034371568925</v>
+        <v>5.938193077873584</v>
       </c>
       <c r="G3" t="n">
-        <v>6.020111175547919</v>
+        <v>5.957313523697749</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.67287957859465</v>
+        <v>-2.145419339378687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8552142138410921</v>
+        <v>0.5778678105891791</v>
       </c>
       <c r="J3" t="n">
-        <v>101.3303413595723</v>
+        <v>104.2416803416188</v>
       </c>
     </row>
     <row r="4">
@@ -573,19 +573,19 @@
         <v>0.00699687153174886</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4572069185500358</v>
+        <v>0.4580139413230185</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4704888589343534</v>
+        <v>0.4705568102898553</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.96423063863617</v>
+        <v>-12.07658878421534</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004449330971217643</v>
+        <v>0.001749531827043871</v>
       </c>
       <c r="J4" t="n">
-        <v>44.78077092512584</v>
+        <v>34.86784392076822</v>
       </c>
     </row>
     <row r="5">
@@ -607,19 +607,19 @@
         <v>8.163689341724033e-13</v>
       </c>
       <c r="F5" t="n">
-        <v>2.838653050352378</v>
+        <v>2.859165450006218</v>
       </c>
       <c r="G5" t="n">
-        <v>2.835778093499892</v>
+        <v>2.865611074476178</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7089269360713699</v>
+        <v>-1.624324760531579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8475505477102467</v>
+        <v>0.6735068832757749</v>
       </c>
       <c r="J5" t="n">
-        <v>-102.9453429701389</v>
+        <v>-93.25149987787651</v>
       </c>
     </row>
     <row r="6">
@@ -641,19 +641,19 @@
         <v>2.308038050365863e-39</v>
       </c>
       <c r="F6" t="n">
-        <v>2.685834689296363</v>
+        <v>2.549839893924996</v>
       </c>
       <c r="G6" t="n">
-        <v>2.705657737683511</v>
+        <v>2.56321972136791</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.54495706168573</v>
+        <v>-1.138274453109099</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6752511650132766</v>
+        <v>0.7677921959434387</v>
       </c>
       <c r="J6" t="n">
-        <v>103.3616154440902</v>
+        <v>102.4767296619945</v>
       </c>
     </row>
   </sheetData>
